--- a/Artefatos/sprints/Planejamento sprints.xlsx
+++ b/Artefatos/sprints/Planejamento sprints.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e66f0b7e9f7bd981/Documentos/1 - Engenharia de Software/3 Periodo/Trabalho interdisciplinar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e66f0b7e9f7bd981/Documentos/1 - Engenharia de Software/3 Periodo/Trabalho interdisciplinar/plf-es-2023-2-ti3-6653100-fabrica-do-saber/Artefatos/sprints/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="659" documentId="8_{B97FCFAF-DD29-4C0B-BA0F-F002D0BE0E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2580298-3D97-46D7-A359-7253081BCC51}"/>
+  <xr:revisionPtr revIDLastSave="676" documentId="8_{B97FCFAF-DD29-4C0B-BA0F-F002D0BE0E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{896EAE89-F909-425F-B042-D62E29488288}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados do Projeto" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Sprint #1'!$B$10:$J$60</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Sprint #5'!$B$10:$J$60</definedName>
   </definedNames>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -61,6 +61,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAAEJHs_WI
@@ -91,6 +92,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAAEJHs_V8
@@ -122,6 +124,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAAEJHs_WQ
@@ -137,6 +140,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAAEJHs_WE
@@ -167,6 +171,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAAEJHs_WM
@@ -182,6 +187,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAAEJHs_Wc
@@ -212,6 +218,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAAEJHs_WM
@@ -227,6 +234,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAAEJHs_Wc
@@ -252,6 +260,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAAEJHs_WM
@@ -267,6 +276,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAAEJHs_Wc
@@ -292,6 +302,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAAEJHs_V4
@@ -307,6 +318,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>======
 ID#AAAAEJHs_Wg
@@ -320,7 +332,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="95">
   <si>
     <t>PONTIFÍCIA UNIVERSIDADE CATÓLICA DE MINAS GERAIS</t>
   </si>
@@ -337,6 +349,7 @@
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Software</t>
     </r>
@@ -360,6 +373,7 @@
         <sz val="11"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Software</t>
     </r>
@@ -500,37 +514,10 @@
     <t>Selecionar</t>
   </si>
   <si>
-    <t>O administrador deve gerenciar os alunos cadastrados.</t>
-  </si>
-  <si>
     <t>Pendente</t>
   </si>
   <si>
-    <t>O administrador deve gerenciar os funcionários cadastrados.</t>
-  </si>
-  <si>
-    <t>O administrador deve gerenciar as turmas.</t>
-  </si>
-  <si>
     <t>O administrador deve iniciar uma nova creche de férias.</t>
-  </si>
-  <si>
-    <t>O administrador deve visualizar graficamente as entradas e saídas.</t>
-  </si>
-  <si>
-    <t>O administrador deve emitir um relatório de despesas.</t>
-  </si>
-  <si>
-    <t>O sistema deve emitir relatório de alunos, turmas e professores.</t>
-  </si>
-  <si>
-    <t>O  administrador deve cadastrar despesas.</t>
-  </si>
-  <si>
-    <t>O administrador deve cadastrar receitas.</t>
-  </si>
-  <si>
-    <t>O sistema deve emitir boletos por meio de API do Banco Inter.</t>
   </si>
   <si>
     <t>PROGRESSO</t>
@@ -633,6 +620,36 @@
   </si>
   <si>
     <t>SPRINT #5</t>
+  </si>
+  <si>
+    <t>O administrador gerencia os alunos cadastrados.</t>
+  </si>
+  <si>
+    <t>O administrador gerencia os funcionários cadastrados.</t>
+  </si>
+  <si>
+    <t>O administrador gerencia as turmas.</t>
+  </si>
+  <si>
+    <t>O administrador visualiza graficamente as entradas e saídas.</t>
+  </si>
+  <si>
+    <t>O usuário emite relatório de alunos.</t>
+  </si>
+  <si>
+    <t>O usuário emite relatório de turmas.</t>
+  </si>
+  <si>
+    <t>O usuário emite relatório de professores.</t>
+  </si>
+  <si>
+    <t>O administrador cadastra despesas.</t>
+  </si>
+  <si>
+    <t>O administrador cadastra receitas.</t>
+  </si>
+  <si>
+    <t>O usuário emite boletos.</t>
   </si>
 </sst>
 </file>
@@ -780,18 +797,21 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -806,7 +826,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -876,6 +896,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-4.9989318521683403E-2"/>
+        <bgColor rgb="FFF3F3F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1060,7 +1092,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1194,35 +1226,16 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1232,20 +1245,47 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1260,14 +1300,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1287,24 +1319,29 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="17">
-    <cellStyle name="Hiperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hiperlink Visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="124">
@@ -2440,7 +2477,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <c:style val="18"/>
   <c:chart>
@@ -3058,166 +3095,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="61"/>
+      <c r="B1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="78"/>
     </row>
     <row r="2" spans="2:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="80"/>
     </row>
     <row r="3" spans="2:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="64"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="80"/>
     </row>
     <row r="4" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="68"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="72"/>
     </row>
     <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="68"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="72"/>
     </row>
     <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="71"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="63"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="2:11" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="72" t="s">
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="70"/>
-      <c r="H9" s="71"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="63"/>
     </row>
     <row r="10" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="74" t="s">
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="75"/>
-      <c r="H10" s="76"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="67"/>
     </row>
     <row r="11" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="74" t="s">
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="75"/>
-      <c r="H11" s="76"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="67"/>
     </row>
     <row r="12" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="74" t="s">
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="75"/>
-      <c r="H12" s="76"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="67"/>
       <c r="K12" s="47"/>
     </row>
     <row r="13" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="77" t="s">
+      <c r="B13" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="74" t="s">
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="75"/>
-      <c r="H13" s="76"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="67"/>
       <c r="I13" s="16"/>
     </row>
     <row r="14" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="74" t="s">
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="75"/>
-      <c r="H14" s="76"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="67"/>
       <c r="I14" s="16"/>
     </row>
     <row r="15" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="82" t="s">
+      <c r="B15" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="74" t="s">
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="75"/>
-      <c r="H15" s="76"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="67"/>
     </row>
     <row r="16" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E16" s="18"/>
@@ -3319,16 +3356,16 @@
     <row r="99" spans="1:15" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="50"/>
-      <c r="B100" s="78"/>
-      <c r="C100" s="63"/>
-      <c r="D100" s="79" t="s">
+      <c r="B100" s="68"/>
+      <c r="C100" s="60"/>
+      <c r="D100" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="E100" s="63"/>
-      <c r="F100" s="79" t="s">
+      <c r="E100" s="60"/>
+      <c r="F100" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="G100" s="63"/>
+      <c r="G100" s="60"/>
       <c r="H100" s="51" t="s">
         <v>18</v>
       </c>
@@ -3350,12 +3387,12 @@
     </row>
     <row r="101" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A101" s="50"/>
-      <c r="B101" s="81"/>
-      <c r="C101" s="63"/>
-      <c r="D101" s="80" t="s">
+      <c r="B101" s="59"/>
+      <c r="C101" s="60"/>
+      <c r="D101" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="E101" s="63"/>
+      <c r="E101" s="60"/>
       <c r="F101" s="53" t="s">
         <v>24</v>
       </c>
@@ -3388,12 +3425,12 @@
     </row>
     <row r="102" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A102" s="50"/>
-      <c r="B102" s="81"/>
-      <c r="C102" s="63"/>
-      <c r="D102" s="80" t="s">
+      <c r="B102" s="59"/>
+      <c r="C102" s="60"/>
+      <c r="D102" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="E102" s="63"/>
+      <c r="E102" s="60"/>
       <c r="F102" s="53" t="s">
         <v>29</v>
       </c>
@@ -3427,12 +3464,12 @@
     </row>
     <row r="103" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A103" s="50"/>
-      <c r="B103" s="81"/>
-      <c r="C103" s="63"/>
-      <c r="D103" s="80" t="s">
+      <c r="B103" s="59"/>
+      <c r="C103" s="60"/>
+      <c r="D103" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="E103" s="63"/>
+      <c r="E103" s="60"/>
       <c r="F103" s="53"/>
       <c r="G103" s="54" t="s">
         <v>34</v>
@@ -3464,12 +3501,12 @@
     </row>
     <row r="104" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A104" s="50"/>
-      <c r="B104" s="81"/>
-      <c r="C104" s="63"/>
-      <c r="D104" s="80" t="s">
+      <c r="B104" s="59"/>
+      <c r="C104" s="60"/>
+      <c r="D104" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="E104" s="63"/>
+      <c r="E104" s="60"/>
       <c r="F104" s="53"/>
       <c r="G104" s="54" t="s">
         <v>36</v>
@@ -3499,12 +3536,12 @@
     </row>
     <row r="105" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A105" s="50"/>
-      <c r="B105" s="81"/>
-      <c r="C105" s="63"/>
-      <c r="D105" s="80" t="s">
+      <c r="B105" s="59"/>
+      <c r="C105" s="60"/>
+      <c r="D105" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="E105" s="63"/>
+      <c r="E105" s="60"/>
       <c r="F105" s="53"/>
       <c r="G105" s="54" t="s">
         <v>39</v>
@@ -3529,8 +3566,8 @@
     </row>
     <row r="106" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A106" s="50"/>
-      <c r="B106" s="81"/>
-      <c r="C106" s="63"/>
+      <c r="B106" s="59"/>
+      <c r="C106" s="60"/>
       <c r="F106" s="53"/>
       <c r="G106" s="54"/>
       <c r="H106" s="53"/>
@@ -3541,8 +3578,8 @@
     </row>
     <row r="107" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="50"/>
-      <c r="B107" s="81"/>
-      <c r="C107" s="63"/>
+      <c r="B107" s="59"/>
+      <c r="C107" s="60"/>
       <c r="D107" s="55"/>
       <c r="E107" s="53"/>
       <c r="F107" s="53"/>
@@ -4510,12 +4547,24 @@
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:H13"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="B100:C100"/>
     <mergeCell ref="D100:E100"/>
@@ -4527,24 +4576,12 @@
     <mergeCell ref="B103:C103"/>
     <mergeCell ref="D103:E103"/>
     <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="D105:E105"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" sqref="F10:F15" xr:uid="{49EDF03A-7EFB-435C-A992-40D98DE85B41}">
@@ -4569,8 +4606,8 @@
   </sheetPr>
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:G30"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4587,59 +4624,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="61"/>
+      <c r="B1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="78"/>
     </row>
     <row r="2" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="80"/>
     </row>
     <row r="3" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="64"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="80"/>
     </row>
     <row r="4" spans="2:8" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="68"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="72"/>
     </row>
     <row r="5" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="68"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="72"/>
     </row>
     <row r="6" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
@@ -4655,12 +4692,12 @@
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="71"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="63"/>
     </row>
     <row r="8" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
@@ -4675,12 +4712,12 @@
       <c r="B9" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="71"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="63"/>
     </row>
     <row r="10" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
@@ -4695,8 +4732,8 @@
       <c r="E10" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="70"/>
-      <c r="G10" s="71"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="63"/>
       <c r="H10" s="6" t="s">
         <v>45</v>
       </c>
@@ -4711,9 +4748,9 @@
       <c r="D11" s="14">
         <v>45190</v>
       </c>
-      <c r="E11" s="83"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="71"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="63"/>
       <c r="H11" s="15"/>
     </row>
     <row r="12" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4727,9 +4764,9 @@
         <f t="shared" ref="D12" si="0">C12+13</f>
         <v>45204</v>
       </c>
-      <c r="E12" s="83"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
       <c r="H12" s="15"/>
     </row>
     <row r="13" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4743,9 +4780,9 @@
       <c r="D13" s="14">
         <v>45225</v>
       </c>
-      <c r="E13" s="83"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="71"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="63"/>
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4758,9 +4795,9 @@
       <c r="D14" s="14">
         <v>45246</v>
       </c>
-      <c r="E14" s="84"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
       <c r="H14" s="15"/>
     </row>
     <row r="15" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4799,13 +4836,13 @@
     </row>
     <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="20"/>
-      <c r="C18" s="85" t="s">
+      <c r="C18" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
       <c r="H18" s="22" t="s">
         <v>47</v>
       </c>
@@ -4814,11 +4851,11 @@
       <c r="B19" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="86"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="71"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="63"/>
       <c r="H19" s="25" t="s">
         <v>48</v>
       </c>
@@ -4828,11 +4865,11 @@
       <c r="B20" s="27">
         <v>0</v>
       </c>
-      <c r="C20" s="87"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="71"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="63"/>
       <c r="H20" s="28"/>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
@@ -4849,15 +4886,15 @@
       <c r="B21" s="9">
         <v>1</v>
       </c>
-      <c r="C21" s="88" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="90"/>
+      <c r="C21" s="84" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J21" s="48"/>
     </row>
@@ -4865,1305 +4902,1309 @@
       <c r="B22" s="27">
         <v>2</v>
       </c>
-      <c r="C22" s="91" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="71"/>
+      <c r="C22" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="63"/>
       <c r="H22" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="9">
         <v>3</v>
       </c>
-      <c r="C23" s="91" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="71"/>
+      <c r="C23" s="83" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="63"/>
       <c r="H23" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="27">
         <v>4</v>
       </c>
-      <c r="C24" s="91" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="71"/>
+      <c r="C24" s="83" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="63"/>
       <c r="H24" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="9">
         <v>5</v>
       </c>
-      <c r="C25" s="91" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="71"/>
+      <c r="C25" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="63"/>
       <c r="H25" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="27">
         <v>6</v>
       </c>
-      <c r="C26" s="91" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="71"/>
+      <c r="C26" s="83" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="63"/>
       <c r="H26" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="9">
         <v>7</v>
       </c>
-      <c r="C27" s="91" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="71"/>
+      <c r="C27" s="83" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="63"/>
       <c r="H27" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="27">
         <v>8</v>
       </c>
-      <c r="C28" s="91" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="71"/>
+      <c r="C28" s="83" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="63"/>
       <c r="H28" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="9">
         <v>9</v>
       </c>
-      <c r="C29" s="91" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="71"/>
+      <c r="C29" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="63"/>
       <c r="H29" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="27">
         <v>10</v>
       </c>
-      <c r="C30" s="88" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="90"/>
+      <c r="C30" s="98" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="99"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="100"/>
       <c r="H30" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="9">
         <v>11</v>
       </c>
-      <c r="C31" s="91"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="71"/>
+      <c r="C31" s="83" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="63"/>
       <c r="H31" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="27">
         <v>12</v>
       </c>
-      <c r="C32" s="91"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="71"/>
+      <c r="C32" s="84" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="85"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="9">
         <v>13</v>
       </c>
-      <c r="C33" s="91"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="71"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="63"/>
       <c r="H33" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="27">
         <v>14</v>
       </c>
-      <c r="C34" s="91"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="71"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="63"/>
       <c r="H34" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="9">
         <v>15</v>
       </c>
-      <c r="C35" s="91"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="70"/>
-      <c r="G35" s="71"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="63"/>
       <c r="H35" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="27">
         <v>16</v>
       </c>
-      <c r="C36" s="91"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="71"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="63"/>
       <c r="H36" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="9">
         <v>17</v>
       </c>
-      <c r="C37" s="91"/>
-      <c r="D37" s="70"/>
-      <c r="E37" s="70"/>
-      <c r="F37" s="70"/>
-      <c r="G37" s="71"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="63"/>
       <c r="H37" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="27">
         <v>18</v>
       </c>
-      <c r="C38" s="91"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="71"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="63"/>
       <c r="H38" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="9">
         <v>19</v>
       </c>
-      <c r="C39" s="91"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="71"/>
+      <c r="C39" s="83"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="63"/>
       <c r="H39" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="27">
         <v>20</v>
       </c>
-      <c r="C40" s="91"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="71"/>
+      <c r="C40" s="83"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="63"/>
       <c r="H40" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="9">
         <v>21</v>
       </c>
-      <c r="C41" s="91"/>
-      <c r="D41" s="70"/>
-      <c r="E41" s="70"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="71"/>
+      <c r="C41" s="83"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="63"/>
       <c r="H41" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="27">
         <v>22</v>
       </c>
-      <c r="C42" s="91"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="71"/>
+      <c r="C42" s="83"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="63"/>
       <c r="H42" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="9">
         <v>23</v>
       </c>
-      <c r="C43" s="91"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="70"/>
-      <c r="G43" s="71"/>
+      <c r="C43" s="83"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="63"/>
       <c r="H43" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="27">
         <v>24</v>
       </c>
-      <c r="C44" s="91"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="71"/>
+      <c r="C44" s="83"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="63"/>
       <c r="H44" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="9">
         <v>25</v>
       </c>
-      <c r="C45" s="91"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="70"/>
-      <c r="F45" s="70"/>
-      <c r="G45" s="71"/>
+      <c r="C45" s="83"/>
+      <c r="D45" s="62"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="62"/>
+      <c r="G45" s="63"/>
       <c r="H45" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="27">
         <v>26</v>
       </c>
-      <c r="C46" s="91"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="71"/>
+      <c r="C46" s="83"/>
+      <c r="D46" s="62"/>
+      <c r="E46" s="62"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="63"/>
       <c r="H46" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="9">
         <v>27</v>
       </c>
-      <c r="C47" s="91"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="70"/>
-      <c r="F47" s="70"/>
-      <c r="G47" s="71"/>
+      <c r="C47" s="83"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="63"/>
       <c r="H47" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="27">
         <v>28</v>
       </c>
-      <c r="C48" s="91"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="70"/>
-      <c r="F48" s="70"/>
-      <c r="G48" s="71"/>
+      <c r="C48" s="83"/>
+      <c r="D48" s="62"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="63"/>
       <c r="H48" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="9">
         <v>29</v>
       </c>
-      <c r="C49" s="91"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
-      <c r="G49" s="71"/>
+      <c r="C49" s="83"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="63"/>
       <c r="H49" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="27">
         <v>30</v>
       </c>
-      <c r="C50" s="91"/>
-      <c r="D50" s="70"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="71"/>
+      <c r="C50" s="83"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="63"/>
       <c r="H50" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="9">
         <v>31</v>
       </c>
-      <c r="C51" s="91"/>
-      <c r="D51" s="70"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="70"/>
-      <c r="G51" s="71"/>
+      <c r="C51" s="83"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="63"/>
       <c r="H51" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="27">
         <v>32</v>
       </c>
-      <c r="C52" s="91"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="71"/>
+      <c r="C52" s="83"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="62"/>
+      <c r="G52" s="63"/>
       <c r="H52" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="9">
         <v>33</v>
       </c>
-      <c r="C53" s="91"/>
-      <c r="D53" s="70"/>
-      <c r="E53" s="70"/>
-      <c r="F53" s="70"/>
-      <c r="G53" s="71"/>
+      <c r="C53" s="83"/>
+      <c r="D53" s="62"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="62"/>
+      <c r="G53" s="63"/>
       <c r="H53" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="27">
         <v>34</v>
       </c>
-      <c r="C54" s="91"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="70"/>
-      <c r="F54" s="70"/>
-      <c r="G54" s="71"/>
+      <c r="C54" s="83"/>
+      <c r="D54" s="62"/>
+      <c r="E54" s="62"/>
+      <c r="F54" s="62"/>
+      <c r="G54" s="63"/>
       <c r="H54" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="9">
         <v>35</v>
       </c>
-      <c r="C55" s="91"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="70"/>
-      <c r="F55" s="70"/>
-      <c r="G55" s="71"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="62"/>
+      <c r="F55" s="62"/>
+      <c r="G55" s="63"/>
       <c r="H55" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="27">
         <v>36</v>
       </c>
-      <c r="C56" s="91"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="71"/>
+      <c r="C56" s="83"/>
+      <c r="D56" s="62"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="63"/>
       <c r="H56" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="9">
         <v>37</v>
       </c>
-      <c r="C57" s="91"/>
-      <c r="D57" s="70"/>
-      <c r="E57" s="70"/>
-      <c r="F57" s="70"/>
-      <c r="G57" s="71"/>
+      <c r="C57" s="83"/>
+      <c r="D57" s="62"/>
+      <c r="E57" s="62"/>
+      <c r="F57" s="62"/>
+      <c r="G57" s="63"/>
       <c r="H57" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="27">
         <v>38</v>
       </c>
-      <c r="C58" s="91"/>
-      <c r="D58" s="70"/>
-      <c r="E58" s="70"/>
-      <c r="F58" s="70"/>
-      <c r="G58" s="71"/>
+      <c r="C58" s="83"/>
+      <c r="D58" s="62"/>
+      <c r="E58" s="62"/>
+      <c r="F58" s="62"/>
+      <c r="G58" s="63"/>
       <c r="H58" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="9">
         <v>39</v>
       </c>
-      <c r="C59" s="91"/>
-      <c r="D59" s="70"/>
-      <c r="E59" s="70"/>
-      <c r="F59" s="70"/>
-      <c r="G59" s="71"/>
+      <c r="C59" s="83"/>
+      <c r="D59" s="62"/>
+      <c r="E59" s="62"/>
+      <c r="F59" s="62"/>
+      <c r="G59" s="63"/>
       <c r="H59" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="27">
         <v>40</v>
       </c>
-      <c r="C60" s="91"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="70"/>
-      <c r="F60" s="70"/>
-      <c r="G60" s="71"/>
+      <c r="C60" s="83"/>
+      <c r="D60" s="62"/>
+      <c r="E60" s="62"/>
+      <c r="F60" s="62"/>
+      <c r="G60" s="63"/>
       <c r="H60" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="9">
         <v>41</v>
       </c>
-      <c r="C61" s="91"/>
-      <c r="D61" s="70"/>
-      <c r="E61" s="70"/>
-      <c r="F61" s="70"/>
-      <c r="G61" s="71"/>
+      <c r="C61" s="83"/>
+      <c r="D61" s="62"/>
+      <c r="E61" s="62"/>
+      <c r="F61" s="62"/>
+      <c r="G61" s="63"/>
       <c r="H61" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="27">
         <v>42</v>
       </c>
-      <c r="C62" s="91"/>
-      <c r="D62" s="70"/>
-      <c r="E62" s="70"/>
-      <c r="F62" s="70"/>
-      <c r="G62" s="71"/>
+      <c r="C62" s="83"/>
+      <c r="D62" s="62"/>
+      <c r="E62" s="62"/>
+      <c r="F62" s="62"/>
+      <c r="G62" s="63"/>
       <c r="H62" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="9">
         <v>43</v>
       </c>
-      <c r="C63" s="91"/>
-      <c r="D63" s="70"/>
-      <c r="E63" s="70"/>
-      <c r="F63" s="70"/>
-      <c r="G63" s="71"/>
+      <c r="C63" s="83"/>
+      <c r="D63" s="62"/>
+      <c r="E63" s="62"/>
+      <c r="F63" s="62"/>
+      <c r="G63" s="63"/>
       <c r="H63" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="27">
         <v>44</v>
       </c>
-      <c r="C64" s="91"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="70"/>
-      <c r="F64" s="70"/>
-      <c r="G64" s="71"/>
+      <c r="C64" s="83"/>
+      <c r="D64" s="62"/>
+      <c r="E64" s="62"/>
+      <c r="F64" s="62"/>
+      <c r="G64" s="63"/>
       <c r="H64" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="9">
         <v>45</v>
       </c>
-      <c r="C65" s="91"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="70"/>
-      <c r="F65" s="70"/>
-      <c r="G65" s="71"/>
+      <c r="C65" s="83"/>
+      <c r="D65" s="62"/>
+      <c r="E65" s="62"/>
+      <c r="F65" s="62"/>
+      <c r="G65" s="63"/>
       <c r="H65" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="27">
         <v>46</v>
       </c>
-      <c r="C66" s="91"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="70"/>
-      <c r="F66" s="70"/>
-      <c r="G66" s="71"/>
+      <c r="C66" s="83"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="62"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="63"/>
       <c r="H66" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="9">
         <v>47</v>
       </c>
-      <c r="C67" s="91"/>
-      <c r="D67" s="70"/>
-      <c r="E67" s="70"/>
-      <c r="F67" s="70"/>
-      <c r="G67" s="71"/>
+      <c r="C67" s="83"/>
+      <c r="D67" s="62"/>
+      <c r="E67" s="62"/>
+      <c r="F67" s="62"/>
+      <c r="G67" s="63"/>
       <c r="H67" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="27">
         <v>48</v>
       </c>
-      <c r="C68" s="91"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="70"/>
-      <c r="F68" s="70"/>
-      <c r="G68" s="71"/>
+      <c r="C68" s="83"/>
+      <c r="D68" s="62"/>
+      <c r="E68" s="62"/>
+      <c r="F68" s="62"/>
+      <c r="G68" s="63"/>
       <c r="H68" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="69" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="9">
         <v>49</v>
       </c>
-      <c r="C69" s="91"/>
-      <c r="D69" s="70"/>
-      <c r="E69" s="70"/>
-      <c r="F69" s="70"/>
-      <c r="G69" s="71"/>
+      <c r="C69" s="83"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="62"/>
+      <c r="F69" s="62"/>
+      <c r="G69" s="63"/>
       <c r="H69" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="27">
         <v>50</v>
       </c>
-      <c r="C70" s="91"/>
-      <c r="D70" s="70"/>
-      <c r="E70" s="70"/>
-      <c r="F70" s="70"/>
-      <c r="G70" s="71"/>
+      <c r="C70" s="83"/>
+      <c r="D70" s="62"/>
+      <c r="E70" s="62"/>
+      <c r="F70" s="62"/>
+      <c r="G70" s="63"/>
       <c r="H70" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="9">
         <v>51</v>
       </c>
-      <c r="C71" s="91"/>
-      <c r="D71" s="70"/>
-      <c r="E71" s="70"/>
-      <c r="F71" s="70"/>
-      <c r="G71" s="71"/>
+      <c r="C71" s="83"/>
+      <c r="D71" s="62"/>
+      <c r="E71" s="62"/>
+      <c r="F71" s="62"/>
+      <c r="G71" s="63"/>
       <c r="H71" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="72" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="27">
         <v>52</v>
       </c>
-      <c r="C72" s="91"/>
-      <c r="D72" s="70"/>
-      <c r="E72" s="70"/>
-      <c r="F72" s="70"/>
-      <c r="G72" s="71"/>
+      <c r="C72" s="83"/>
+      <c r="D72" s="62"/>
+      <c r="E72" s="62"/>
+      <c r="F72" s="62"/>
+      <c r="G72" s="63"/>
       <c r="H72" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="9">
         <v>53</v>
       </c>
-      <c r="C73" s="91"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="70"/>
-      <c r="F73" s="70"/>
-      <c r="G73" s="71"/>
+      <c r="C73" s="83"/>
+      <c r="D73" s="62"/>
+      <c r="E73" s="62"/>
+      <c r="F73" s="62"/>
+      <c r="G73" s="63"/>
       <c r="H73" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="74" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="27">
         <v>54</v>
       </c>
-      <c r="C74" s="91"/>
-      <c r="D74" s="70"/>
-      <c r="E74" s="70"/>
-      <c r="F74" s="70"/>
-      <c r="G74" s="71"/>
+      <c r="C74" s="83"/>
+      <c r="D74" s="62"/>
+      <c r="E74" s="62"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="63"/>
       <c r="H74" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="9">
         <v>55</v>
       </c>
-      <c r="C75" s="91"/>
-      <c r="D75" s="70"/>
-      <c r="E75" s="70"/>
-      <c r="F75" s="70"/>
-      <c r="G75" s="71"/>
+      <c r="C75" s="83"/>
+      <c r="D75" s="62"/>
+      <c r="E75" s="62"/>
+      <c r="F75" s="62"/>
+      <c r="G75" s="63"/>
       <c r="H75" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="27">
         <v>56</v>
       </c>
-      <c r="C76" s="91"/>
-      <c r="D76" s="70"/>
-      <c r="E76" s="70"/>
-      <c r="F76" s="70"/>
-      <c r="G76" s="71"/>
+      <c r="C76" s="83"/>
+      <c r="D76" s="62"/>
+      <c r="E76" s="62"/>
+      <c r="F76" s="62"/>
+      <c r="G76" s="63"/>
       <c r="H76" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="77" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="9">
         <v>57</v>
       </c>
-      <c r="C77" s="91"/>
-      <c r="D77" s="70"/>
-      <c r="E77" s="70"/>
-      <c r="F77" s="70"/>
-      <c r="G77" s="71"/>
+      <c r="C77" s="83"/>
+      <c r="D77" s="62"/>
+      <c r="E77" s="62"/>
+      <c r="F77" s="62"/>
+      <c r="G77" s="63"/>
       <c r="H77" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="78" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="27">
         <v>58</v>
       </c>
-      <c r="C78" s="91"/>
-      <c r="D78" s="70"/>
-      <c r="E78" s="70"/>
-      <c r="F78" s="70"/>
-      <c r="G78" s="71"/>
+      <c r="C78" s="83"/>
+      <c r="D78" s="62"/>
+      <c r="E78" s="62"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="63"/>
       <c r="H78" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="79" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="9">
         <v>59</v>
       </c>
-      <c r="C79" s="91"/>
-      <c r="D79" s="70"/>
-      <c r="E79" s="70"/>
-      <c r="F79" s="70"/>
-      <c r="G79" s="71"/>
+      <c r="C79" s="83"/>
+      <c r="D79" s="62"/>
+      <c r="E79" s="62"/>
+      <c r="F79" s="62"/>
+      <c r="G79" s="63"/>
       <c r="H79" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="27">
         <v>60</v>
       </c>
-      <c r="C80" s="91"/>
-      <c r="D80" s="70"/>
-      <c r="E80" s="70"/>
-      <c r="F80" s="70"/>
-      <c r="G80" s="71"/>
+      <c r="C80" s="83"/>
+      <c r="D80" s="62"/>
+      <c r="E80" s="62"/>
+      <c r="F80" s="62"/>
+      <c r="G80" s="63"/>
       <c r="H80" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="81" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="9">
         <v>61</v>
       </c>
-      <c r="C81" s="91"/>
-      <c r="D81" s="70"/>
-      <c r="E81" s="70"/>
-      <c r="F81" s="70"/>
-      <c r="G81" s="71"/>
+      <c r="C81" s="83"/>
+      <c r="D81" s="62"/>
+      <c r="E81" s="62"/>
+      <c r="F81" s="62"/>
+      <c r="G81" s="63"/>
       <c r="H81" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="27">
         <v>62</v>
       </c>
-      <c r="C82" s="91"/>
-      <c r="D82" s="70"/>
-      <c r="E82" s="70"/>
-      <c r="F82" s="70"/>
-      <c r="G82" s="71"/>
+      <c r="C82" s="83"/>
+      <c r="D82" s="62"/>
+      <c r="E82" s="62"/>
+      <c r="F82" s="62"/>
+      <c r="G82" s="63"/>
       <c r="H82" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="83" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="9">
         <v>63</v>
       </c>
-      <c r="C83" s="91"/>
-      <c r="D83" s="70"/>
-      <c r="E83" s="70"/>
-      <c r="F83" s="70"/>
-      <c r="G83" s="71"/>
+      <c r="C83" s="83"/>
+      <c r="D83" s="62"/>
+      <c r="E83" s="62"/>
+      <c r="F83" s="62"/>
+      <c r="G83" s="63"/>
       <c r="H83" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="27">
         <v>64</v>
       </c>
-      <c r="C84" s="91"/>
-      <c r="D84" s="70"/>
-      <c r="E84" s="70"/>
-      <c r="F84" s="70"/>
-      <c r="G84" s="71"/>
+      <c r="C84" s="83"/>
+      <c r="D84" s="62"/>
+      <c r="E84" s="62"/>
+      <c r="F84" s="62"/>
+      <c r="G84" s="63"/>
       <c r="H84" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="85" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="9">
         <v>65</v>
       </c>
-      <c r="C85" s="91"/>
-      <c r="D85" s="70"/>
-      <c r="E85" s="70"/>
-      <c r="F85" s="70"/>
-      <c r="G85" s="71"/>
+      <c r="C85" s="83"/>
+      <c r="D85" s="62"/>
+      <c r="E85" s="62"/>
+      <c r="F85" s="62"/>
+      <c r="G85" s="63"/>
       <c r="H85" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="86" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="27">
         <v>66</v>
       </c>
-      <c r="C86" s="91"/>
-      <c r="D86" s="70"/>
-      <c r="E86" s="70"/>
-      <c r="F86" s="70"/>
-      <c r="G86" s="71"/>
+      <c r="C86" s="83"/>
+      <c r="D86" s="62"/>
+      <c r="E86" s="62"/>
+      <c r="F86" s="62"/>
+      <c r="G86" s="63"/>
       <c r="H86" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="9">
         <v>67</v>
       </c>
-      <c r="C87" s="91"/>
-      <c r="D87" s="70"/>
-      <c r="E87" s="70"/>
-      <c r="F87" s="70"/>
-      <c r="G87" s="71"/>
+      <c r="C87" s="83"/>
+      <c r="D87" s="62"/>
+      <c r="E87" s="62"/>
+      <c r="F87" s="62"/>
+      <c r="G87" s="63"/>
       <c r="H87" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="88" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="27">
         <v>68</v>
       </c>
-      <c r="C88" s="91"/>
-      <c r="D88" s="70"/>
-      <c r="E88" s="70"/>
-      <c r="F88" s="70"/>
-      <c r="G88" s="71"/>
+      <c r="C88" s="83"/>
+      <c r="D88" s="62"/>
+      <c r="E88" s="62"/>
+      <c r="F88" s="62"/>
+      <c r="G88" s="63"/>
       <c r="H88" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="9">
         <v>69</v>
       </c>
-      <c r="C89" s="91"/>
-      <c r="D89" s="70"/>
-      <c r="E89" s="70"/>
-      <c r="F89" s="70"/>
-      <c r="G89" s="71"/>
+      <c r="C89" s="83"/>
+      <c r="D89" s="62"/>
+      <c r="E89" s="62"/>
+      <c r="F89" s="62"/>
+      <c r="G89" s="63"/>
       <c r="H89" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="90" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="27">
         <v>70</v>
       </c>
-      <c r="C90" s="91"/>
-      <c r="D90" s="70"/>
-      <c r="E90" s="70"/>
-      <c r="F90" s="70"/>
-      <c r="G90" s="71"/>
+      <c r="C90" s="83"/>
+      <c r="D90" s="62"/>
+      <c r="E90" s="62"/>
+      <c r="F90" s="62"/>
+      <c r="G90" s="63"/>
       <c r="H90" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="9">
         <v>71</v>
       </c>
-      <c r="C91" s="91"/>
-      <c r="D91" s="70"/>
-      <c r="E91" s="70"/>
-      <c r="F91" s="70"/>
-      <c r="G91" s="71"/>
+      <c r="C91" s="83"/>
+      <c r="D91" s="62"/>
+      <c r="E91" s="62"/>
+      <c r="F91" s="62"/>
+      <c r="G91" s="63"/>
       <c r="H91" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="27">
         <v>72</v>
       </c>
-      <c r="C92" s="91"/>
-      <c r="D92" s="70"/>
-      <c r="E92" s="70"/>
-      <c r="F92" s="70"/>
-      <c r="G92" s="71"/>
+      <c r="C92" s="83"/>
+      <c r="D92" s="62"/>
+      <c r="E92" s="62"/>
+      <c r="F92" s="62"/>
+      <c r="G92" s="63"/>
       <c r="H92" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="9">
         <v>73</v>
       </c>
-      <c r="C93" s="91"/>
-      <c r="D93" s="70"/>
-      <c r="E93" s="70"/>
-      <c r="F93" s="70"/>
-      <c r="G93" s="71"/>
+      <c r="C93" s="83"/>
+      <c r="D93" s="62"/>
+      <c r="E93" s="62"/>
+      <c r="F93" s="62"/>
+      <c r="G93" s="63"/>
       <c r="H93" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="27">
         <v>74</v>
       </c>
-      <c r="C94" s="91"/>
-      <c r="D94" s="70"/>
-      <c r="E94" s="70"/>
-      <c r="F94" s="70"/>
-      <c r="G94" s="71"/>
+      <c r="C94" s="83"/>
+      <c r="D94" s="62"/>
+      <c r="E94" s="62"/>
+      <c r="F94" s="62"/>
+      <c r="G94" s="63"/>
       <c r="H94" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="9">
         <v>75</v>
       </c>
-      <c r="C95" s="91"/>
-      <c r="D95" s="70"/>
-      <c r="E95" s="70"/>
-      <c r="F95" s="70"/>
-      <c r="G95" s="71"/>
+      <c r="C95" s="83"/>
+      <c r="D95" s="62"/>
+      <c r="E95" s="62"/>
+      <c r="F95" s="62"/>
+      <c r="G95" s="63"/>
       <c r="H95" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="27">
         <v>76</v>
       </c>
-      <c r="C96" s="91"/>
-      <c r="D96" s="70"/>
-      <c r="E96" s="70"/>
-      <c r="F96" s="70"/>
-      <c r="G96" s="71"/>
+      <c r="C96" s="83"/>
+      <c r="D96" s="62"/>
+      <c r="E96" s="62"/>
+      <c r="F96" s="62"/>
+      <c r="G96" s="63"/>
       <c r="H96" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="97" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="9">
         <v>77</v>
       </c>
-      <c r="C97" s="91"/>
-      <c r="D97" s="70"/>
-      <c r="E97" s="70"/>
-      <c r="F97" s="70"/>
-      <c r="G97" s="71"/>
+      <c r="C97" s="83"/>
+      <c r="D97" s="62"/>
+      <c r="E97" s="62"/>
+      <c r="F97" s="62"/>
+      <c r="G97" s="63"/>
       <c r="H97" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="98" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="27">
         <v>78</v>
       </c>
-      <c r="C98" s="91"/>
-      <c r="D98" s="70"/>
-      <c r="E98" s="70"/>
-      <c r="F98" s="70"/>
-      <c r="G98" s="71"/>
+      <c r="C98" s="83"/>
+      <c r="D98" s="62"/>
+      <c r="E98" s="62"/>
+      <c r="F98" s="62"/>
+      <c r="G98" s="63"/>
       <c r="H98" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="99" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="9">
         <v>79</v>
       </c>
-      <c r="C99" s="91"/>
-      <c r="D99" s="70"/>
-      <c r="E99" s="70"/>
-      <c r="F99" s="70"/>
-      <c r="G99" s="71"/>
+      <c r="C99" s="83"/>
+      <c r="D99" s="62"/>
+      <c r="E99" s="62"/>
+      <c r="F99" s="62"/>
+      <c r="G99" s="63"/>
       <c r="H99" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="100" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="27">
         <v>80</v>
       </c>
-      <c r="C100" s="91"/>
-      <c r="D100" s="70"/>
-      <c r="E100" s="70"/>
-      <c r="F100" s="70"/>
-      <c r="G100" s="71"/>
+      <c r="C100" s="83"/>
+      <c r="D100" s="62"/>
+      <c r="E100" s="62"/>
+      <c r="F100" s="62"/>
+      <c r="G100" s="63"/>
       <c r="H100" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="101" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="9">
         <v>81</v>
       </c>
-      <c r="C101" s="91"/>
-      <c r="D101" s="70"/>
-      <c r="E101" s="70"/>
-      <c r="F101" s="70"/>
-      <c r="G101" s="71"/>
+      <c r="C101" s="83"/>
+      <c r="D101" s="62"/>
+      <c r="E101" s="62"/>
+      <c r="F101" s="62"/>
+      <c r="G101" s="63"/>
       <c r="H101" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="102" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="27">
         <v>82</v>
       </c>
-      <c r="C102" s="91"/>
-      <c r="D102" s="70"/>
-      <c r="E102" s="70"/>
-      <c r="F102" s="70"/>
-      <c r="G102" s="71"/>
+      <c r="C102" s="83"/>
+      <c r="D102" s="62"/>
+      <c r="E102" s="62"/>
+      <c r="F102" s="62"/>
+      <c r="G102" s="63"/>
       <c r="H102" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="103" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="9">
         <v>83</v>
       </c>
-      <c r="C103" s="91"/>
-      <c r="D103" s="70"/>
-      <c r="E103" s="70"/>
-      <c r="F103" s="70"/>
-      <c r="G103" s="71"/>
+      <c r="C103" s="83"/>
+      <c r="D103" s="62"/>
+      <c r="E103" s="62"/>
+      <c r="F103" s="62"/>
+      <c r="G103" s="63"/>
       <c r="H103" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="104" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="27">
         <v>84</v>
       </c>
-      <c r="C104" s="91"/>
-      <c r="D104" s="70"/>
-      <c r="E104" s="70"/>
-      <c r="F104" s="70"/>
-      <c r="G104" s="71"/>
+      <c r="C104" s="83"/>
+      <c r="D104" s="62"/>
+      <c r="E104" s="62"/>
+      <c r="F104" s="62"/>
+      <c r="G104" s="63"/>
       <c r="H104" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="105" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="9">
         <v>85</v>
       </c>
-      <c r="C105" s="91"/>
-      <c r="D105" s="70"/>
-      <c r="E105" s="70"/>
-      <c r="F105" s="70"/>
-      <c r="G105" s="71"/>
+      <c r="C105" s="83"/>
+      <c r="D105" s="62"/>
+      <c r="E105" s="62"/>
+      <c r="F105" s="62"/>
+      <c r="G105" s="63"/>
       <c r="H105" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="106" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="27">
         <v>86</v>
       </c>
-      <c r="C106" s="91"/>
-      <c r="D106" s="70"/>
-      <c r="E106" s="70"/>
-      <c r="F106" s="70"/>
-      <c r="G106" s="71"/>
+      <c r="C106" s="83"/>
+      <c r="D106" s="62"/>
+      <c r="E106" s="62"/>
+      <c r="F106" s="62"/>
+      <c r="G106" s="63"/>
       <c r="H106" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="107" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="9">
         <v>87</v>
       </c>
-      <c r="C107" s="91"/>
-      <c r="D107" s="70"/>
-      <c r="E107" s="70"/>
-      <c r="F107" s="70"/>
-      <c r="G107" s="71"/>
+      <c r="C107" s="83"/>
+      <c r="D107" s="62"/>
+      <c r="E107" s="62"/>
+      <c r="F107" s="62"/>
+      <c r="G107" s="63"/>
       <c r="H107" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="108" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="27">
         <v>88</v>
       </c>
-      <c r="C108" s="91"/>
-      <c r="D108" s="70"/>
-      <c r="E108" s="70"/>
-      <c r="F108" s="70"/>
-      <c r="G108" s="71"/>
+      <c r="C108" s="83"/>
+      <c r="D108" s="62"/>
+      <c r="E108" s="62"/>
+      <c r="F108" s="62"/>
+      <c r="G108" s="63"/>
       <c r="H108" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="109" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="9">
         <v>89</v>
       </c>
-      <c r="C109" s="91"/>
-      <c r="D109" s="70"/>
-      <c r="E109" s="70"/>
-      <c r="F109" s="70"/>
-      <c r="G109" s="71"/>
+      <c r="C109" s="83"/>
+      <c r="D109" s="62"/>
+      <c r="E109" s="62"/>
+      <c r="F109" s="62"/>
+      <c r="G109" s="63"/>
       <c r="H109" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="110" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="27">
         <v>90</v>
       </c>
-      <c r="C110" s="91"/>
-      <c r="D110" s="70"/>
-      <c r="E110" s="70"/>
-      <c r="F110" s="70"/>
-      <c r="G110" s="71"/>
+      <c r="C110" s="83"/>
+      <c r="D110" s="62"/>
+      <c r="E110" s="62"/>
+      <c r="F110" s="62"/>
+      <c r="G110" s="63"/>
       <c r="H110" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="111" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="9">
         <v>91</v>
       </c>
-      <c r="C111" s="91"/>
-      <c r="D111" s="70"/>
-      <c r="E111" s="70"/>
-      <c r="F111" s="70"/>
-      <c r="G111" s="71"/>
+      <c r="C111" s="83"/>
+      <c r="D111" s="62"/>
+      <c r="E111" s="62"/>
+      <c r="F111" s="62"/>
+      <c r="G111" s="63"/>
       <c r="H111" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="112" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="27">
         <v>92</v>
       </c>
-      <c r="C112" s="91"/>
-      <c r="D112" s="70"/>
-      <c r="E112" s="70"/>
-      <c r="F112" s="70"/>
-      <c r="G112" s="71"/>
+      <c r="C112" s="83"/>
+      <c r="D112" s="62"/>
+      <c r="E112" s="62"/>
+      <c r="F112" s="62"/>
+      <c r="G112" s="63"/>
       <c r="H112" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="113" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="9">
         <v>93</v>
       </c>
-      <c r="C113" s="91"/>
-      <c r="D113" s="70"/>
-      <c r="E113" s="70"/>
-      <c r="F113" s="70"/>
-      <c r="G113" s="71"/>
+      <c r="C113" s="83"/>
+      <c r="D113" s="62"/>
+      <c r="E113" s="62"/>
+      <c r="F113" s="62"/>
+      <c r="G113" s="63"/>
       <c r="H113" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="114" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="27">
         <v>94</v>
       </c>
-      <c r="C114" s="91"/>
-      <c r="D114" s="70"/>
-      <c r="E114" s="70"/>
-      <c r="F114" s="70"/>
-      <c r="G114" s="71"/>
+      <c r="C114" s="83"/>
+      <c r="D114" s="62"/>
+      <c r="E114" s="62"/>
+      <c r="F114" s="62"/>
+      <c r="G114" s="63"/>
       <c r="H114" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="115" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="9">
         <v>95</v>
       </c>
-      <c r="C115" s="91"/>
-      <c r="D115" s="70"/>
-      <c r="E115" s="70"/>
-      <c r="F115" s="70"/>
-      <c r="G115" s="71"/>
+      <c r="C115" s="83"/>
+      <c r="D115" s="62"/>
+      <c r="E115" s="62"/>
+      <c r="F115" s="62"/>
+      <c r="G115" s="63"/>
       <c r="H115" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="116" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="27">
         <v>96</v>
       </c>
-      <c r="C116" s="91"/>
-      <c r="D116" s="70"/>
-      <c r="E116" s="70"/>
-      <c r="F116" s="70"/>
-      <c r="G116" s="71"/>
+      <c r="C116" s="83"/>
+      <c r="D116" s="62"/>
+      <c r="E116" s="62"/>
+      <c r="F116" s="62"/>
+      <c r="G116" s="63"/>
       <c r="H116" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="117" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="9">
         <v>97</v>
       </c>
-      <c r="C117" s="91"/>
-      <c r="D117" s="70"/>
-      <c r="E117" s="70"/>
-      <c r="F117" s="70"/>
-      <c r="G117" s="71"/>
+      <c r="C117" s="83"/>
+      <c r="D117" s="62"/>
+      <c r="E117" s="62"/>
+      <c r="F117" s="62"/>
+      <c r="G117" s="63"/>
       <c r="H117" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="118" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="27">
         <v>98</v>
       </c>
-      <c r="C118" s="91"/>
-      <c r="D118" s="70"/>
-      <c r="E118" s="70"/>
-      <c r="F118" s="70"/>
-      <c r="G118" s="71"/>
+      <c r="C118" s="83"/>
+      <c r="D118" s="62"/>
+      <c r="E118" s="62"/>
+      <c r="F118" s="62"/>
+      <c r="G118" s="63"/>
       <c r="H118" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="119" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="9">
         <v>99</v>
       </c>
-      <c r="C119" s="91"/>
-      <c r="D119" s="70"/>
-      <c r="E119" s="70"/>
-      <c r="F119" s="70"/>
-      <c r="G119" s="71"/>
+      <c r="C119" s="83"/>
+      <c r="D119" s="62"/>
+      <c r="E119" s="62"/>
+      <c r="F119" s="62"/>
+      <c r="G119" s="63"/>
       <c r="H119" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="120" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="27">
         <v>100</v>
       </c>
-      <c r="C120" s="91"/>
-      <c r="D120" s="70"/>
-      <c r="E120" s="70"/>
-      <c r="F120" s="70"/>
-      <c r="G120" s="71"/>
+      <c r="C120" s="83"/>
+      <c r="D120" s="62"/>
+      <c r="E120" s="62"/>
+      <c r="F120" s="62"/>
+      <c r="G120" s="63"/>
       <c r="H120" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="121" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6982,7 +7023,7 @@
       </c>
       <c r="C211" s="34"/>
       <c r="D211" s="34" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E211" s="4"/>
       <c r="F211" s="4"/>
@@ -6991,7 +7032,7 @@
     </row>
     <row r="212" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B212" s="34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C212" s="34"/>
       <c r="D212" s="34" t="s">
@@ -7004,7 +7045,7 @@
     </row>
     <row r="213" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B213" s="34" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C213" s="34"/>
       <c r="D213" s="34" t="s">
@@ -7017,7 +7058,7 @@
     </row>
     <row r="214" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B214" s="34" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C214" s="34"/>
       <c r="D214" s="34" t="s">
@@ -7840,53 +7881,50 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="C96:G96"/>
-    <mergeCell ref="C97:G97"/>
-    <mergeCell ref="C98:G98"/>
-    <mergeCell ref="C99:G99"/>
-    <mergeCell ref="C100:G100"/>
-    <mergeCell ref="C101:G101"/>
-    <mergeCell ref="C102:G102"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="C88:G88"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="C90:G90"/>
-    <mergeCell ref="C91:G91"/>
-    <mergeCell ref="C92:G92"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="C94:G94"/>
-    <mergeCell ref="C95:G95"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C86:G86"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="C72:G72"/>
-    <mergeCell ref="C73:G73"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="C108:G108"/>
-    <mergeCell ref="C109:G109"/>
-    <mergeCell ref="C117:G117"/>
-    <mergeCell ref="C118:G118"/>
-    <mergeCell ref="C119:G119"/>
-    <mergeCell ref="C120:G120"/>
-    <mergeCell ref="C110:G110"/>
-    <mergeCell ref="C111:G111"/>
-    <mergeCell ref="C112:G112"/>
-    <mergeCell ref="C113:G113"/>
-    <mergeCell ref="C114:G114"/>
-    <mergeCell ref="C115:G115"/>
-    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C49:G49"/>
     <mergeCell ref="C50:G50"/>
     <mergeCell ref="C51:G51"/>
     <mergeCell ref="C52:G52"/>
@@ -7911,50 +7949,53 @@
     <mergeCell ref="C66:G66"/>
     <mergeCell ref="C67:G67"/>
     <mergeCell ref="C68:G68"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="C95:G95"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H21:H120" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -7981,8 +8022,8 @@
   </sheetPr>
   <dimension ref="A1:U1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D11" sqref="D11:D23"/>
     </sheetView>
   </sheetViews>
@@ -8003,85 +8044,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="61"/>
+      <c r="B1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="78"/>
       <c r="K1" s="2">
         <f>Requisitos!C11</f>
         <v>45170</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="64"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="80"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K21" si="0">K1+1</f>
         <v>45171</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="64"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="80"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45172</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="68"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45173</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="64"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45174</v>
@@ -8095,18 +8136,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="69" t="str">
+      <c r="B7" s="73" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="71"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45176</v>
@@ -8121,17 +8162,17 @@
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="96" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="71"/>
+        <v>54</v>
+      </c>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="63"/>
       <c r="J9" s="57" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="0"/>
@@ -8143,28 +8184,28 @@
         <v>41</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="0"/>
@@ -8180,7 +8221,7 @@
         <v>45179</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E11" s="11">
         <v>1</v>
@@ -8221,7 +8262,7 @@
         <v>45179</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E12" s="12">
         <v>1</v>
@@ -8254,7 +8295,7 @@
         <v>45179</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E13" s="11">
         <v>1</v>
@@ -8285,7 +8326,7 @@
         <v>45186</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="E14" s="11">
         <v>1</v>
@@ -8317,7 +8358,7 @@
         <v>45186</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E15" s="11">
         <v>1</v>
@@ -8349,7 +8390,7 @@
         <v>45179</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E16" s="11">
         <v>1</v>
@@ -8381,7 +8422,7 @@
         <v>45179</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="E17" s="11">
         <v>1</v>
@@ -8416,7 +8457,7 @@
         <v>45179</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E18" s="11">
         <v>1</v>
@@ -8450,7 +8491,7 @@
         <v>45179</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E19" s="11">
         <v>1</v>
@@ -8484,7 +8525,7 @@
         <v>45186</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E20" s="11">
         <v>1</v>
@@ -8517,7 +8558,7 @@
         <v>45186</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E21" s="11">
         <v>1</v>
@@ -8550,7 +8591,7 @@
         <v>45186</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E22" s="11">
         <v>2</v>
@@ -8579,7 +8620,7 @@
         <v>45186</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E23" s="11">
         <v>2</v>
@@ -9234,7 +9275,7 @@
     </row>
     <row r="61" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G61" s="42" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H61" s="32">
         <f t="shared" ref="H61:I61" si="1">SUM(H11:H60)</f>
@@ -9263,27 +9304,27 @@
     </row>
     <row r="63" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="96" t="s">
-        <v>87</v>
-      </c>
-      <c r="C63" s="70"/>
-      <c r="D63" s="70"/>
-      <c r="E63" s="70"/>
-      <c r="F63" s="70"/>
-      <c r="G63" s="70"/>
-      <c r="H63" s="70"/>
-      <c r="I63" s="71"/>
+        <v>78</v>
+      </c>
+      <c r="C63" s="62"/>
+      <c r="D63" s="62"/>
+      <c r="E63" s="62"/>
+      <c r="F63" s="62"/>
+      <c r="G63" s="62"/>
+      <c r="H63" s="62"/>
+      <c r="I63" s="63"/>
     </row>
     <row r="64" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="97" t="s">
-        <v>88</v>
-      </c>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="70"/>
-      <c r="F64" s="70"/>
-      <c r="G64" s="71"/>
+        <v>79</v>
+      </c>
+      <c r="C64" s="62"/>
+      <c r="D64" s="62"/>
+      <c r="E64" s="62"/>
+      <c r="F64" s="62"/>
+      <c r="G64" s="63"/>
       <c r="H64" s="7" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I64" s="7" t="s">
         <v>19</v>
@@ -9294,11 +9335,11 @@
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C65" s="70"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="70"/>
-      <c r="F65" s="70"/>
-      <c r="G65" s="71"/>
+      <c r="C65" s="62"/>
+      <c r="D65" s="62"/>
+      <c r="E65" s="62"/>
+      <c r="F65" s="62"/>
+      <c r="G65" s="63"/>
       <c r="H65" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B10,H$11:H$60)</f>
         <v>8</v>
@@ -9313,11 +9354,11 @@
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C66" s="70"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="70"/>
-      <c r="F66" s="70"/>
-      <c r="G66" s="71"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="62"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="63"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>10</v>
@@ -9332,11 +9373,11 @@
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C67" s="70"/>
-      <c r="D67" s="70"/>
-      <c r="E67" s="70"/>
-      <c r="F67" s="70"/>
-      <c r="G67" s="71"/>
+      <c r="C67" s="62"/>
+      <c r="D67" s="62"/>
+      <c r="E67" s="62"/>
+      <c r="F67" s="62"/>
+      <c r="G67" s="63"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>8</v>
@@ -9351,11 +9392,11 @@
         <f>'Dados do Projeto'!B13</f>
         <v>Maria Eduarda Amaral</v>
       </c>
-      <c r="C68" s="70"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="70"/>
-      <c r="F68" s="70"/>
-      <c r="G68" s="71"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="62"/>
+      <c r="E68" s="62"/>
+      <c r="F68" s="62"/>
+      <c r="G68" s="63"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B13,H$11:H$60)</f>
         <v>9</v>
@@ -9370,11 +9411,11 @@
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C69" s="70"/>
-      <c r="D69" s="70"/>
-      <c r="E69" s="70"/>
-      <c r="F69" s="70"/>
-      <c r="G69" s="71"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="62"/>
+      <c r="F69" s="62"/>
+      <c r="G69" s="63"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>8</v>
@@ -9389,11 +9430,11 @@
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C70" s="70"/>
-      <c r="D70" s="70"/>
-      <c r="E70" s="70"/>
-      <c r="F70" s="70"/>
-      <c r="G70" s="71"/>
+      <c r="C70" s="62"/>
+      <c r="D70" s="62"/>
+      <c r="E70" s="62"/>
+      <c r="F70" s="62"/>
+      <c r="G70" s="63"/>
       <c r="H70" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>10</v>
@@ -10538,85 +10579,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="61"/>
+      <c r="B1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="78"/>
       <c r="K1" s="2">
         <f>Requisitos!C12</f>
         <v>45191</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="64"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="80"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>45192</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="64"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="80"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45193</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="68"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45194</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="64"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45195</v>
@@ -10630,18 +10671,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="69" t="str">
+      <c r="B7" s="73" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="71"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45197</v>
@@ -10656,17 +10697,17 @@
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="96" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="71"/>
+        <v>81</v>
+      </c>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="63"/>
       <c r="J9" s="57" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="0"/>
@@ -10678,28 +10719,28 @@
         <v>41</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="0"/>
@@ -11752,7 +11793,7 @@
     </row>
     <row r="70" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G70" s="31" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H70" s="32">
         <f t="shared" ref="H70:I70" si="1">SUM(H11:H60)</f>
@@ -11781,27 +11822,27 @@
     </row>
     <row r="72" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="96" t="s">
-        <v>87</v>
-      </c>
-      <c r="C72" s="70"/>
-      <c r="D72" s="70"/>
-      <c r="E72" s="70"/>
-      <c r="F72" s="70"/>
-      <c r="G72" s="70"/>
-      <c r="H72" s="70"/>
-      <c r="I72" s="71"/>
+        <v>78</v>
+      </c>
+      <c r="C72" s="62"/>
+      <c r="D72" s="62"/>
+      <c r="E72" s="62"/>
+      <c r="F72" s="62"/>
+      <c r="G72" s="62"/>
+      <c r="H72" s="62"/>
+      <c r="I72" s="63"/>
     </row>
     <row r="73" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="97" t="s">
-        <v>88</v>
-      </c>
-      <c r="C73" s="70"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="70"/>
-      <c r="F73" s="70"/>
-      <c r="G73" s="71"/>
+        <v>79</v>
+      </c>
+      <c r="C73" s="62"/>
+      <c r="D73" s="62"/>
+      <c r="E73" s="62"/>
+      <c r="F73" s="62"/>
+      <c r="G73" s="63"/>
       <c r="H73" s="7" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I73" s="7" t="s">
         <v>19</v>
@@ -11812,11 +11853,11 @@
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C74" s="70"/>
-      <c r="D74" s="70"/>
-      <c r="E74" s="70"/>
-      <c r="F74" s="70"/>
-      <c r="G74" s="71"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="62"/>
+      <c r="E74" s="62"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="63"/>
       <c r="H74" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -11831,11 +11872,11 @@
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C75" s="70"/>
-      <c r="D75" s="70"/>
-      <c r="E75" s="70"/>
-      <c r="F75" s="70"/>
-      <c r="G75" s="71"/>
+      <c r="C75" s="62"/>
+      <c r="D75" s="62"/>
+      <c r="E75" s="62"/>
+      <c r="F75" s="62"/>
+      <c r="G75" s="63"/>
       <c r="H75" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -11850,11 +11891,11 @@
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C76" s="70"/>
-      <c r="D76" s="70"/>
-      <c r="E76" s="70"/>
-      <c r="F76" s="70"/>
-      <c r="G76" s="71"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="62"/>
+      <c r="E76" s="62"/>
+      <c r="F76" s="62"/>
+      <c r="G76" s="63"/>
       <c r="H76" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -11869,11 +11910,11 @@
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C77" s="70"/>
-      <c r="D77" s="70"/>
-      <c r="E77" s="70"/>
-      <c r="F77" s="70"/>
-      <c r="G77" s="71"/>
+      <c r="C77" s="62"/>
+      <c r="D77" s="62"/>
+      <c r="E77" s="62"/>
+      <c r="F77" s="62"/>
+      <c r="G77" s="63"/>
       <c r="H77" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -11888,11 +11929,11 @@
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C78" s="70"/>
-      <c r="D78" s="70"/>
-      <c r="E78" s="70"/>
-      <c r="F78" s="70"/>
-      <c r="G78" s="71"/>
+      <c r="C78" s="62"/>
+      <c r="D78" s="62"/>
+      <c r="E78" s="62"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="63"/>
       <c r="H78" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -13118,85 +13159,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="61"/>
+      <c r="B1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="78"/>
       <c r="K1" s="2">
         <f>Requisitos!C13</f>
         <v>45205</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="64"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="80"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K21" si="0">K1+1</f>
         <v>45206</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="64"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="80"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45207</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="68"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45208</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="64"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45209</v>
@@ -13210,18 +13251,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="69" t="str">
+      <c r="B7" s="73" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="71"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45211</v>
@@ -13236,17 +13277,17 @@
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="96" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="71"/>
+        <v>82</v>
+      </c>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="63"/>
       <c r="J9" s="57" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="0"/>
@@ -13258,28 +13299,28 @@
         <v>41</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="0"/>
@@ -14353,7 +14394,7 @@
     </row>
     <row r="70" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G70" s="31" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H70" s="32">
         <f t="shared" ref="H70:I70" si="1">SUM(H11:H60)</f>
@@ -14382,27 +14423,27 @@
     </row>
     <row r="72" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="96" t="s">
-        <v>87</v>
-      </c>
-      <c r="C72" s="70"/>
-      <c r="D72" s="70"/>
-      <c r="E72" s="70"/>
-      <c r="F72" s="70"/>
-      <c r="G72" s="70"/>
-      <c r="H72" s="70"/>
-      <c r="I72" s="71"/>
+        <v>78</v>
+      </c>
+      <c r="C72" s="62"/>
+      <c r="D72" s="62"/>
+      <c r="E72" s="62"/>
+      <c r="F72" s="62"/>
+      <c r="G72" s="62"/>
+      <c r="H72" s="62"/>
+      <c r="I72" s="63"/>
     </row>
     <row r="73" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="97" t="s">
-        <v>88</v>
-      </c>
-      <c r="C73" s="70"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="70"/>
-      <c r="F73" s="70"/>
-      <c r="G73" s="71"/>
+        <v>79</v>
+      </c>
+      <c r="C73" s="62"/>
+      <c r="D73" s="62"/>
+      <c r="E73" s="62"/>
+      <c r="F73" s="62"/>
+      <c r="G73" s="63"/>
       <c r="H73" s="7" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I73" s="7" t="s">
         <v>19</v>
@@ -14413,11 +14454,11 @@
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C74" s="70"/>
-      <c r="D74" s="70"/>
-      <c r="E74" s="70"/>
-      <c r="F74" s="70"/>
-      <c r="G74" s="71"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="62"/>
+      <c r="E74" s="62"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="63"/>
       <c r="H74" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -14432,11 +14473,11 @@
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C75" s="70"/>
-      <c r="D75" s="70"/>
-      <c r="E75" s="70"/>
-      <c r="F75" s="70"/>
-      <c r="G75" s="71"/>
+      <c r="C75" s="62"/>
+      <c r="D75" s="62"/>
+      <c r="E75" s="62"/>
+      <c r="F75" s="62"/>
+      <c r="G75" s="63"/>
       <c r="H75" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -14451,11 +14492,11 @@
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C76" s="70"/>
-      <c r="D76" s="70"/>
-      <c r="E76" s="70"/>
-      <c r="F76" s="70"/>
-      <c r="G76" s="71"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="62"/>
+      <c r="E76" s="62"/>
+      <c r="F76" s="62"/>
+      <c r="G76" s="63"/>
       <c r="H76" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -14470,11 +14511,11 @@
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C77" s="70"/>
-      <c r="D77" s="70"/>
-      <c r="E77" s="70"/>
-      <c r="F77" s="70"/>
-      <c r="G77" s="71"/>
+      <c r="C77" s="62"/>
+      <c r="D77" s="62"/>
+      <c r="E77" s="62"/>
+      <c r="F77" s="62"/>
+      <c r="G77" s="63"/>
       <c r="H77" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -14489,11 +14530,11 @@
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C78" s="70"/>
-      <c r="D78" s="70"/>
-      <c r="E78" s="70"/>
-      <c r="F78" s="70"/>
-      <c r="G78" s="71"/>
+      <c r="C78" s="62"/>
+      <c r="D78" s="62"/>
+      <c r="E78" s="62"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="63"/>
       <c r="H78" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -15517,12 +15558,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
     <mergeCell ref="B77:G77"/>
     <mergeCell ref="B78:G78"/>
     <mergeCell ref="B9:I9"/>
@@ -15531,6 +15566,12 @@
     <mergeCell ref="B74:G74"/>
     <mergeCell ref="B75:G75"/>
     <mergeCell ref="B76:G76"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="F20:F25">
     <cfRule type="expression" dxfId="89" priority="1">
@@ -15717,85 +15758,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="61"/>
+      <c r="B1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="78"/>
       <c r="K1" s="2">
         <f>Requisitos!C14</f>
         <v>45226</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="64"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="80"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K21" si="0">K1+1</f>
         <v>45227</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="64"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="80"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45228</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="68"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45229</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="64"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45230</v>
@@ -15809,18 +15850,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="69" t="str">
+      <c r="B7" s="73" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="71"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45232</v>
@@ -15835,17 +15876,17 @@
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="96" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="71"/>
+        <v>83</v>
+      </c>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="63"/>
       <c r="J9" s="57" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="0"/>
@@ -15857,28 +15898,28 @@
         <v>41</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="0"/>
@@ -16952,7 +16993,7 @@
     </row>
     <row r="70" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G70" s="31" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H70" s="32">
         <f t="shared" ref="H70:I70" si="1">SUM(H11:H60)</f>
@@ -16981,27 +17022,27 @@
     </row>
     <row r="72" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="96" t="s">
-        <v>87</v>
-      </c>
-      <c r="C72" s="70"/>
-      <c r="D72" s="70"/>
-      <c r="E72" s="70"/>
-      <c r="F72" s="70"/>
-      <c r="G72" s="70"/>
-      <c r="H72" s="70"/>
-      <c r="I72" s="71"/>
+        <v>78</v>
+      </c>
+      <c r="C72" s="62"/>
+      <c r="D72" s="62"/>
+      <c r="E72" s="62"/>
+      <c r="F72" s="62"/>
+      <c r="G72" s="62"/>
+      <c r="H72" s="62"/>
+      <c r="I72" s="63"/>
     </row>
     <row r="73" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="97" t="s">
-        <v>88</v>
-      </c>
-      <c r="C73" s="70"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="70"/>
-      <c r="F73" s="70"/>
-      <c r="G73" s="71"/>
+        <v>79</v>
+      </c>
+      <c r="C73" s="62"/>
+      <c r="D73" s="62"/>
+      <c r="E73" s="62"/>
+      <c r="F73" s="62"/>
+      <c r="G73" s="63"/>
       <c r="H73" s="7" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I73" s="7" t="s">
         <v>19</v>
@@ -17012,11 +17053,11 @@
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C74" s="70"/>
-      <c r="D74" s="70"/>
-      <c r="E74" s="70"/>
-      <c r="F74" s="70"/>
-      <c r="G74" s="71"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="62"/>
+      <c r="E74" s="62"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="63"/>
       <c r="H74" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -17031,11 +17072,11 @@
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C75" s="70"/>
-      <c r="D75" s="70"/>
-      <c r="E75" s="70"/>
-      <c r="F75" s="70"/>
-      <c r="G75" s="71"/>
+      <c r="C75" s="62"/>
+      <c r="D75" s="62"/>
+      <c r="E75" s="62"/>
+      <c r="F75" s="62"/>
+      <c r="G75" s="63"/>
       <c r="H75" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -17050,11 +17091,11 @@
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C76" s="70"/>
-      <c r="D76" s="70"/>
-      <c r="E76" s="70"/>
-      <c r="F76" s="70"/>
-      <c r="G76" s="71"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="62"/>
+      <c r="E76" s="62"/>
+      <c r="F76" s="62"/>
+      <c r="G76" s="63"/>
       <c r="H76" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -17069,11 +17110,11 @@
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C77" s="70"/>
-      <c r="D77" s="70"/>
-      <c r="E77" s="70"/>
-      <c r="F77" s="70"/>
-      <c r="G77" s="71"/>
+      <c r="C77" s="62"/>
+      <c r="D77" s="62"/>
+      <c r="E77" s="62"/>
+      <c r="F77" s="62"/>
+      <c r="G77" s="63"/>
       <c r="H77" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -17088,11 +17129,11 @@
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C78" s="70"/>
-      <c r="D78" s="70"/>
-      <c r="E78" s="70"/>
-      <c r="F78" s="70"/>
-      <c r="G78" s="71"/>
+      <c r="C78" s="62"/>
+      <c r="D78" s="62"/>
+      <c r="E78" s="62"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="63"/>
       <c r="H78" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -18116,12 +18157,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
     <mergeCell ref="B77:G77"/>
     <mergeCell ref="B78:G78"/>
     <mergeCell ref="B9:I9"/>
@@ -18130,6 +18165,12 @@
     <mergeCell ref="B74:G74"/>
     <mergeCell ref="B75:G75"/>
     <mergeCell ref="B76:G76"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="F20:F25">
     <cfRule type="expression" dxfId="63" priority="1">
@@ -18315,85 +18356,85 @@
   <sheetData>
     <row r="1" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="61"/>
+      <c r="B1" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="78"/>
       <c r="K1" s="2">
         <f>Requisitos!C15</f>
         <v>45247</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="64"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="80"/>
       <c r="K2" s="2">
         <f t="shared" ref="K2:K14" si="0">K1+1</f>
         <v>45248</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="64"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="80"/>
       <c r="K3" s="2">
         <f t="shared" si="0"/>
         <v>45249</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="68"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
       <c r="K4" s="2">
         <f t="shared" si="0"/>
         <v>45250</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="64"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="2">
         <f t="shared" si="0"/>
         <v>45251</v>
@@ -18406,18 +18447,18 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="69" t="str">
+      <c r="B7" s="73" t="str">
         <f>'Dados do Projeto'!B7</f>
         <v>Fábrica do Saber</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="71"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="63"/>
       <c r="K7" s="2">
         <f t="shared" si="0"/>
         <v>45253</v>
@@ -18431,17 +18472,17 @@
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="96" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="71"/>
+        <v>84</v>
+      </c>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="63"/>
       <c r="J9" s="58" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="0"/>
@@ -18453,28 +18494,28 @@
         <v>41</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="J10" s="35" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="0"/>
@@ -19374,7 +19415,7 @@
     </row>
     <row r="61" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G61" s="31" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H61" s="32">
         <f t="shared" ref="H61:I61" si="1">SUM(H11:H60)</f>
@@ -19401,27 +19442,27 @@
     </row>
     <row r="63" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="96" t="s">
-        <v>87</v>
-      </c>
-      <c r="C63" s="70"/>
-      <c r="D63" s="70"/>
-      <c r="E63" s="70"/>
-      <c r="F63" s="70"/>
-      <c r="G63" s="70"/>
-      <c r="H63" s="70"/>
-      <c r="I63" s="71"/>
+        <v>78</v>
+      </c>
+      <c r="C63" s="62"/>
+      <c r="D63" s="62"/>
+      <c r="E63" s="62"/>
+      <c r="F63" s="62"/>
+      <c r="G63" s="62"/>
+      <c r="H63" s="62"/>
+      <c r="I63" s="63"/>
     </row>
     <row r="64" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="97" t="s">
-        <v>88</v>
-      </c>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="70"/>
-      <c r="F64" s="70"/>
-      <c r="G64" s="71"/>
+        <v>79</v>
+      </c>
+      <c r="C64" s="62"/>
+      <c r="D64" s="62"/>
+      <c r="E64" s="62"/>
+      <c r="F64" s="62"/>
+      <c r="G64" s="63"/>
       <c r="H64" s="7" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I64" s="7" t="s">
         <v>19</v>
@@ -19432,11 +19473,11 @@
         <f>'Dados do Projeto'!B10</f>
         <v>Guilherme Lage</v>
       </c>
-      <c r="C65" s="70"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="70"/>
-      <c r="F65" s="70"/>
-      <c r="G65" s="71"/>
+      <c r="C65" s="62"/>
+      <c r="D65" s="62"/>
+      <c r="E65" s="62"/>
+      <c r="F65" s="62"/>
+      <c r="G65" s="63"/>
       <c r="H65" s="33">
         <f>SUMIF($F$11:$F$60,'Dados do Projeto'!$B10,H$11:H$60)</f>
         <v>0</v>
@@ -19451,11 +19492,11 @@
         <f>'Dados do Projeto'!B11</f>
         <v>João Gabriel Perez</v>
       </c>
-      <c r="C66" s="70"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="70"/>
-      <c r="F66" s="70"/>
-      <c r="G66" s="71"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="62"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="63"/>
       <c r="H66" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B11,H$11:H$60)</f>
         <v>0</v>
@@ -19470,11 +19511,11 @@
         <f>'Dados do Projeto'!B12</f>
         <v>Lucas Soares</v>
       </c>
-      <c r="C67" s="70"/>
-      <c r="D67" s="70"/>
-      <c r="E67" s="70"/>
-      <c r="F67" s="70"/>
-      <c r="G67" s="71"/>
+      <c r="C67" s="62"/>
+      <c r="D67" s="62"/>
+      <c r="E67" s="62"/>
+      <c r="F67" s="62"/>
+      <c r="G67" s="63"/>
       <c r="H67" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B12,H$11:H$60)</f>
         <v>0</v>
@@ -19489,11 +19530,11 @@
         <f>'Dados do Projeto'!B14</f>
         <v>Marlene Moraes</v>
       </c>
-      <c r="C68" s="70"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="70"/>
-      <c r="F68" s="70"/>
-      <c r="G68" s="71"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="62"/>
+      <c r="E68" s="62"/>
+      <c r="F68" s="62"/>
+      <c r="G68" s="63"/>
       <c r="H68" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B14,H$11:H$60)</f>
         <v>0</v>
@@ -19508,11 +19549,11 @@
         <f>'Dados do Projeto'!B15</f>
         <v>Vitor Stahlberg</v>
       </c>
-      <c r="C69" s="70"/>
-      <c r="D69" s="70"/>
-      <c r="E69" s="70"/>
-      <c r="F69" s="70"/>
-      <c r="G69" s="71"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="62"/>
+      <c r="F69" s="62"/>
+      <c r="G69" s="63"/>
       <c r="H69" s="33">
         <f>SUMIF(F$11:F$60,'Dados do Projeto'!B15,H$11:H$60)</f>
         <v>0</v>
@@ -20475,12 +20516,6 @@
   </sheetData>
   <autoFilter ref="B10:J60" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <mergeCells count="14">
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
     <mergeCell ref="B68:G68"/>
     <mergeCell ref="B69:G69"/>
     <mergeCell ref="B9:I9"/>
@@ -20489,6 +20524,12 @@
     <mergeCell ref="B65:G65"/>
     <mergeCell ref="B66:G66"/>
     <mergeCell ref="B67:G67"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="F13 F17">
     <cfRule type="containsBlanks" dxfId="37" priority="1">
